--- a/converter/data/xlsx/18.3._BSMJENA.XLSX
+++ b/converter/data/xlsx/18.3._BSMJENA.XLSX
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\RASPORED-2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zkuns.MARTA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="9390" tabRatio="478"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="478"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="109">
   <si>
     <t>Predmetni profesor:</t>
   </si>
@@ -3214,6 +3214,21 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3238,26 +3253,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3640,130 +3640,130 @@
   </sheetPr>
   <dimension ref="A1:AM67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AG50" sqref="AG50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="6" customWidth="1"/>
-    <col min="9" max="11" width="6.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
-    <col min="16" max="17" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" style="6" customWidth="1"/>
-    <col min="23" max="24" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="5.5703125" style="6" customWidth="1"/>
-    <col min="28" max="29" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.42578125" style="6" customWidth="1"/>
-    <col min="31" max="33" width="5.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="6" customWidth="1"/>
+    <col min="9" max="11" width="6.5546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="6" customWidth="1"/>
+    <col min="16" max="17" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5546875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" style="6" customWidth="1"/>
+    <col min="23" max="24" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="5.5546875" style="6" customWidth="1"/>
+    <col min="28" max="29" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.44140625" style="6" customWidth="1"/>
+    <col min="31" max="33" width="5.5546875" style="6" customWidth="1"/>
     <col min="34" max="34" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.5703125" style="6" customWidth="1"/>
-    <col min="37" max="37" width="6.140625" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="35" max="35" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="6.5546875" style="6" customWidth="1"/>
+    <col min="37" max="37" width="6.109375" style="1" customWidth="1"/>
+    <col min="38" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="424" t="s">
+    <row r="1" spans="1:37" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="429" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="424"/>
-      <c r="C1" s="424"/>
-      <c r="D1" s="424"/>
-      <c r="E1" s="424"/>
-      <c r="F1" s="424"/>
-      <c r="G1" s="424"/>
-      <c r="H1" s="424"/>
-      <c r="I1" s="424"/>
-      <c r="J1" s="424"/>
-      <c r="K1" s="424"/>
-      <c r="L1" s="424"/>
-      <c r="M1" s="424"/>
-      <c r="N1" s="424"/>
-      <c r="O1" s="424"/>
-      <c r="P1" s="424"/>
-      <c r="Q1" s="424"/>
-      <c r="R1" s="424"/>
-      <c r="S1" s="424"/>
-      <c r="T1" s="424"/>
-      <c r="U1" s="424"/>
-      <c r="V1" s="424"/>
-      <c r="W1" s="424"/>
-      <c r="X1" s="424"/>
-      <c r="Y1" s="424"/>
-      <c r="Z1" s="424"/>
-      <c r="AA1" s="424"/>
-      <c r="AB1" s="424"/>
-      <c r="AC1" s="424"/>
-      <c r="AD1" s="424"/>
-      <c r="AE1" s="424"/>
-      <c r="AF1" s="424"/>
-      <c r="AG1" s="424"/>
-      <c r="AH1" s="424"/>
-      <c r="AI1" s="424"/>
-      <c r="AJ1" s="424"/>
-    </row>
-    <row r="2" spans="1:37" ht="18" x14ac:dyDescent="0.25">
+      <c r="B1" s="429"/>
+      <c r="C1" s="429"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
+      <c r="K1" s="429"/>
+      <c r="L1" s="429"/>
+      <c r="M1" s="429"/>
+      <c r="N1" s="429"/>
+      <c r="O1" s="429"/>
+      <c r="P1" s="429"/>
+      <c r="Q1" s="429"/>
+      <c r="R1" s="429"/>
+      <c r="S1" s="429"/>
+      <c r="T1" s="429"/>
+      <c r="U1" s="429"/>
+      <c r="V1" s="429"/>
+      <c r="W1" s="429"/>
+      <c r="X1" s="429"/>
+      <c r="Y1" s="429"/>
+      <c r="Z1" s="429"/>
+      <c r="AA1" s="429"/>
+      <c r="AB1" s="429"/>
+      <c r="AC1" s="429"/>
+      <c r="AD1" s="429"/>
+      <c r="AE1" s="429"/>
+      <c r="AF1" s="429"/>
+      <c r="AG1" s="429"/>
+      <c r="AH1" s="429"/>
+      <c r="AI1" s="429"/>
+      <c r="AJ1" s="429"/>
+    </row>
+    <row r="2" spans="1:37" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="425" t="s">
+      <c r="B2" s="430" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="426"/>
-      <c r="D2" s="426"/>
-      <c r="E2" s="426"/>
-      <c r="F2" s="426"/>
-      <c r="G2" s="426"/>
-      <c r="H2" s="427"/>
-      <c r="I2" s="428" t="s">
+      <c r="C2" s="431"/>
+      <c r="D2" s="431"/>
+      <c r="E2" s="431"/>
+      <c r="F2" s="431"/>
+      <c r="G2" s="431"/>
+      <c r="H2" s="432"/>
+      <c r="I2" s="433" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="426"/>
-      <c r="K2" s="426"/>
-      <c r="L2" s="426"/>
-      <c r="M2" s="426"/>
-      <c r="N2" s="426"/>
-      <c r="O2" s="427"/>
-      <c r="P2" s="425" t="s">
+      <c r="J2" s="431"/>
+      <c r="K2" s="431"/>
+      <c r="L2" s="431"/>
+      <c r="M2" s="431"/>
+      <c r="N2" s="431"/>
+      <c r="O2" s="432"/>
+      <c r="P2" s="430" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="426"/>
-      <c r="R2" s="426"/>
-      <c r="S2" s="426"/>
-      <c r="T2" s="426"/>
-      <c r="U2" s="426"/>
-      <c r="V2" s="427"/>
-      <c r="W2" s="428" t="s">
+      <c r="Q2" s="431"/>
+      <c r="R2" s="431"/>
+      <c r="S2" s="431"/>
+      <c r="T2" s="431"/>
+      <c r="U2" s="431"/>
+      <c r="V2" s="432"/>
+      <c r="W2" s="433" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="426"/>
-      <c r="Y2" s="426"/>
-      <c r="Z2" s="426"/>
-      <c r="AA2" s="426"/>
-      <c r="AB2" s="426"/>
-      <c r="AC2" s="427"/>
-      <c r="AD2" s="429" t="s">
+      <c r="X2" s="431"/>
+      <c r="Y2" s="431"/>
+      <c r="Z2" s="431"/>
+      <c r="AA2" s="431"/>
+      <c r="AB2" s="431"/>
+      <c r="AC2" s="432"/>
+      <c r="AD2" s="434" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="430"/>
-      <c r="AF2" s="430"/>
-      <c r="AG2" s="430"/>
-      <c r="AH2" s="430"/>
-      <c r="AI2" s="430"/>
-      <c r="AJ2" s="431"/>
-    </row>
-    <row r="3" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AE2" s="435"/>
+      <c r="AF2" s="435"/>
+      <c r="AG2" s="435"/>
+      <c r="AH2" s="435"/>
+      <c r="AI2" s="435"/>
+      <c r="AJ2" s="436"/>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
         <v>65</v>
       </c>
@@ -3919,16 +3919,12 @@
       <c r="AI4" s="31"/>
       <c r="AJ4" s="284"/>
     </row>
-    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="175" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" s="175"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="73" t="s">
         <v>71</v>
       </c>
@@ -4001,7 +3997,7 @@
       <c r="AI5" s="82"/>
       <c r="AJ5" s="233"/>
     </row>
-    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
@@ -4053,7 +4049,7 @@
       <c r="AI6" s="37"/>
       <c r="AJ6" s="41"/>
     </row>
-    <row r="7" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>47</v>
       </c>
@@ -4131,12 +4127,16 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="261"/>
-      <c r="C8" s="70"/>
+      <c r="B8" s="261" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>70</v>
+      </c>
       <c r="D8" s="70"/>
       <c r="E8" s="70" t="s">
         <v>98</v>
@@ -4144,12 +4144,8 @@
       <c r="F8" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="78" t="s">
-        <v>70</v>
-      </c>
+      <c r="G8" s="70"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="22" t="s">
         <v>87</v>
       </c>
@@ -4217,7 +4213,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>23</v>
       </c>
@@ -4273,7 +4269,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>82</v>
       </c>
@@ -4352,7 +4348,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>66</v>
       </c>
@@ -4372,12 +4368,8 @@
       <c r="K11" s="82"/>
       <c r="L11" s="82"/>
       <c r="M11" s="34"/>
-      <c r="N11" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>98</v>
-      </c>
+      <c r="N11" s="82"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="11" t="s">
         <v>93</v>
       </c>
@@ -4416,7 +4408,7 @@
       <c r="AI11" s="40"/>
       <c r="AJ11" s="29"/>
     </row>
-    <row r="12" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -4468,7 +4460,7 @@
       <c r="AI12" s="25"/>
       <c r="AJ12" s="43"/>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
@@ -4528,7 +4520,7 @@
       <c r="AI13" s="12"/>
       <c r="AJ13" s="35"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -4572,7 +4564,7 @@
       <c r="AI14" s="12"/>
       <c r="AJ14" s="35"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>105</v>
       </c>
@@ -4626,11 +4618,11 @@
       <c r="AI15" s="375" t="s">
         <v>101</v>
       </c>
-      <c r="AJ15" s="438" t="s">
+      <c r="AJ15" s="424" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
@@ -4687,7 +4679,7 @@
       <c r="AJ16" s="35"/>
       <c r="AK16" s="119"/>
     </row>
-    <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>15</v>
       </c>
@@ -4746,7 +4738,7 @@
       <c r="AJ17" s="35"/>
       <c r="AK17" s="119"/>
     </row>
-    <row r="18" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>49</v>
       </c>
@@ -4801,7 +4793,7 @@
       <c r="AJ18" s="35"/>
       <c r="AK18" s="119"/>
     </row>
-    <row r="19" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>40</v>
       </c>
@@ -4870,7 +4862,7 @@
       <c r="AJ19" s="35"/>
       <c r="AK19" s="119"/>
     </row>
-    <row r="20" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>102</v>
       </c>
@@ -4915,7 +4907,7 @@
       <c r="AJ20" s="35"/>
       <c r="AK20" s="119"/>
     </row>
-    <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>5</v>
       </c>
@@ -4968,7 +4960,7 @@
       </c>
       <c r="AK21" s="119"/>
     </row>
-    <row r="22" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>51</v>
       </c>
@@ -5022,23 +5014,23 @@
       <c r="AK22" s="119"/>
       <c r="AL22" s="119"/>
     </row>
-    <row r="23" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="72"/>
       <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
+      <c r="D23" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>71</v>
+      </c>
       <c r="F23" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="74" t="s">
-        <v>71</v>
-      </c>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
       <c r="I23" s="11" t="s">
         <v>88</v>
       </c>
@@ -5167,7 +5159,7 @@
       </c>
       <c r="AJ24" s="29"/>
     </row>
-    <row r="25" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>77</v>
       </c>
@@ -5238,7 +5230,7 @@
       </c>
       <c r="AL25" s="119"/>
     </row>
-    <row r="26" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>84</v>
       </c>
@@ -5367,7 +5359,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>42</v>
       </c>
@@ -5421,7 +5413,7 @@
       <c r="AK28" s="309"/>
       <c r="AL28" s="309"/>
     </row>
-    <row r="29" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>43</v>
       </c>
@@ -5481,7 +5473,7 @@
       <c r="AK29" s="310"/>
       <c r="AL29" s="311"/>
     </row>
-    <row r="30" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
         <v>52</v>
       </c>
@@ -5549,7 +5541,7 @@
       <c r="AK30" s="311"/>
       <c r="AL30" s="312"/>
     </row>
-    <row r="31" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="150" t="s">
         <v>39</v>
       </c>
@@ -5677,7 +5669,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>18</v>
       </c>
@@ -5762,7 +5754,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>64</v>
       </c>
@@ -5807,7 +5799,7 @@
       <c r="AJ34" s="54"/>
       <c r="AK34" s="179"/>
     </row>
-    <row r="35" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>6</v>
       </c>
@@ -5927,7 +5919,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>46</v>
       </c>
@@ -5974,7 +5966,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>16</v>
       </c>
@@ -6045,7 +6037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>7</v>
       </c>
@@ -6110,7 +6102,7 @@
       <c r="AJ39" s="213"/>
       <c r="AK39" s="178"/>
     </row>
-    <row r="40" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="161" t="s">
         <v>85</v>
       </c>
@@ -6188,7 +6180,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>86</v>
       </c>
@@ -6260,7 +6252,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>67</v>
       </c>
@@ -6306,7 +6298,7 @@
       <c r="AI42" s="40"/>
       <c r="AJ42" s="54"/>
     </row>
-    <row r="43" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>44</v>
       </c>
@@ -6350,7 +6342,7 @@
       <c r="AI43" s="40"/>
       <c r="AJ43" s="54"/>
     </row>
-    <row r="44" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>68</v>
       </c>
@@ -6398,7 +6390,7 @@
       <c r="AI44" s="25"/>
       <c r="AJ44" s="219"/>
     </row>
-    <row r="45" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>8</v>
       </c>
@@ -6451,7 +6443,7 @@
       <c r="AJ45" s="35"/>
       <c r="AK45" s="137"/>
     </row>
-    <row r="46" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>19</v>
       </c>
@@ -6508,7 +6500,7 @@
       <c r="AJ46" s="41"/>
       <c r="AK46" s="111"/>
     </row>
-    <row r="47" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>9</v>
       </c>
@@ -6560,7 +6552,7 @@
       <c r="AI47" s="25"/>
       <c r="AJ47" s="43"/>
     </row>
-    <row r="48" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>11</v>
       </c>
@@ -6624,7 +6616,7 @@
       <c r="AI48" s="56"/>
       <c r="AJ48" s="58"/>
     </row>
-    <row r="49" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
         <v>83</v>
       </c>
@@ -6684,7 +6676,7 @@
       <c r="AI49" s="34"/>
       <c r="AJ49" s="45"/>
     </row>
-    <row r="50" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>73</v>
       </c>
@@ -6744,7 +6736,7 @@
       <c r="AI50" s="25"/>
       <c r="AJ50" s="43"/>
     </row>
-    <row r="51" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="418" t="s">
         <v>60</v>
       </c>
@@ -6809,7 +6801,7 @@
       <c r="AJ51" s="373"/>
       <c r="AK51" s="119"/>
     </row>
-    <row r="52" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>106</v>
       </c>
@@ -6864,7 +6856,7 @@
       <c r="AJ52" s="417"/>
       <c r="AK52" s="119"/>
     </row>
-    <row r="53" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>78</v>
       </c>
@@ -6935,7 +6927,7 @@
       <c r="AJ53" s="45"/>
       <c r="AL53" s="119"/>
     </row>
-    <row r="54" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>107</v>
       </c>
@@ -7031,7 +7023,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
         <v>61</v>
       </c>
@@ -7127,7 +7119,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
         <v>53</v>
       </c>
@@ -7196,7 +7188,7 @@
       <c r="AJ56" s="121"/>
       <c r="AK56" s="119"/>
     </row>
-    <row r="57" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
         <v>80</v>
       </c>
@@ -7295,7 +7287,7 @@
       <c r="AJ57" s="88"/>
       <c r="AK57" s="119"/>
     </row>
-    <row r="58" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
         <v>79</v>
       </c>
@@ -7376,7 +7368,7 @@
       <c r="AJ58" s="134"/>
       <c r="AK58" s="119"/>
     </row>
-    <row r="59" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
         <v>41</v>
       </c>
@@ -7439,7 +7431,7 @@
       <c r="AJ59" s="259"/>
       <c r="AK59" s="120"/>
     </row>
-    <row r="60" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="89" t="s">
         <v>76</v>
       </c>
@@ -7522,7 +7514,7 @@
       <c r="AJ60" s="134"/>
       <c r="AL60" s="119"/>
     </row>
-    <row r="61" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
         <v>63</v>
       </c>
@@ -7587,7 +7579,7 @@
       <c r="AJ61" s="170"/>
       <c r="AL61" s="119"/>
     </row>
-    <row r="62" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="66"/>
       <c r="C62" s="66"/>
       <c r="D62" s="66"/>
@@ -7624,72 +7616,72 @@
       <c r="AI62" s="66"/>
       <c r="AJ62" s="66"/>
     </row>
-    <row r="63" spans="1:38" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:38" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="432" t="s">
+      <c r="B63" s="425" t="s">
         <v>107</v>
       </c>
-      <c r="C63" s="433"/>
-      <c r="D63" s="433"/>
-      <c r="E63" s="433"/>
-      <c r="F63" s="433"/>
-      <c r="G63" s="433"/>
-      <c r="H63" s="435"/>
-      <c r="I63" s="432" t="s">
+      <c r="C63" s="426"/>
+      <c r="D63" s="426"/>
+      <c r="E63" s="426"/>
+      <c r="F63" s="426"/>
+      <c r="G63" s="426"/>
+      <c r="H63" s="428"/>
+      <c r="I63" s="425" t="s">
         <v>104</v>
       </c>
-      <c r="J63" s="433"/>
-      <c r="K63" s="433"/>
-      <c r="L63" s="433"/>
-      <c r="M63" s="433"/>
-      <c r="N63" s="433"/>
-      <c r="O63" s="435"/>
-      <c r="P63" s="432" t="s">
+      <c r="J63" s="426"/>
+      <c r="K63" s="426"/>
+      <c r="L63" s="426"/>
+      <c r="M63" s="426"/>
+      <c r="N63" s="426"/>
+      <c r="O63" s="428"/>
+      <c r="P63" s="425" t="s">
         <v>18</v>
       </c>
-      <c r="Q63" s="433"/>
-      <c r="R63" s="433"/>
-      <c r="S63" s="433"/>
-      <c r="T63" s="433"/>
-      <c r="U63" s="433"/>
-      <c r="V63" s="435"/>
-      <c r="W63" s="432" t="s">
+      <c r="Q63" s="426"/>
+      <c r="R63" s="426"/>
+      <c r="S63" s="426"/>
+      <c r="T63" s="426"/>
+      <c r="U63" s="426"/>
+      <c r="V63" s="428"/>
+      <c r="W63" s="425" t="s">
         <v>50</v>
       </c>
-      <c r="X63" s="433"/>
-      <c r="Y63" s="433"/>
-      <c r="Z63" s="433"/>
-      <c r="AA63" s="433"/>
-      <c r="AB63" s="433"/>
-      <c r="AC63" s="435"/>
-      <c r="AD63" s="432" t="s">
+      <c r="X63" s="426"/>
+      <c r="Y63" s="426"/>
+      <c r="Z63" s="426"/>
+      <c r="AA63" s="426"/>
+      <c r="AB63" s="426"/>
+      <c r="AC63" s="428"/>
+      <c r="AD63" s="425" t="s">
         <v>22</v>
       </c>
-      <c r="AE63" s="433"/>
-      <c r="AF63" s="433"/>
-      <c r="AG63" s="433"/>
-      <c r="AH63" s="433"/>
-      <c r="AI63" s="433"/>
-      <c r="AJ63" s="434"/>
-    </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="AE63" s="426"/>
+      <c r="AF63" s="426"/>
+      <c r="AG63" s="426"/>
+      <c r="AH63" s="426"/>
+      <c r="AI63" s="426"/>
+      <c r="AJ63" s="427"/>
+    </row>
+    <row r="67" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O67" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AD63:AJ63"/>
-    <mergeCell ref="W63:AC63"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="I63:O63"/>
-    <mergeCell ref="P63:V63"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="AD63:AJ63"/>
+    <mergeCell ref="W63:AC63"/>
+    <mergeCell ref="B63:H63"/>
+    <mergeCell ref="I63:O63"/>
+    <mergeCell ref="P63:V63"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7708,28 +7700,28 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="220"/>
-    <col min="2" max="2" width="16.42578125" style="220" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="220" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="220" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="220"/>
+    <col min="1" max="1" width="9.109375" style="220"/>
+    <col min="2" max="2" width="16.44140625" style="220" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="220" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="220" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="220"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="436" t="s">
+    <row r="1" spans="2:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B1" s="437" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="436"/>
-      <c r="D1" s="436"/>
-    </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="437"/>
+      <c r="D1" s="437"/>
+    </row>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="189"/>
       <c r="C2" s="94"/>
       <c r="D2" s="95"/>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="224"/>
       <c r="C3" s="94" t="s">
         <v>26</v>
@@ -7738,12 +7730,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="189"/>
       <c r="C4" s="94"/>
       <c r="D4" s="95"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="190"/>
       <c r="C5" s="94" t="s">
         <v>26</v>
@@ -7752,12 +7744,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="189"/>
       <c r="C6" s="94"/>
       <c r="D6" s="95"/>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="191"/>
       <c r="C7" s="94" t="s">
         <v>26</v>
@@ -7766,12 +7758,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="189"/>
       <c r="C8" s="94"/>
       <c r="D8" s="95"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="96"/>
       <c r="C9" s="94" t="s">
         <v>26</v>
@@ -7780,25 +7772,25 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="192"/>
       <c r="C10" s="193"/>
       <c r="D10" s="95"/>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="223"/>
       <c r="C11" s="194"/>
       <c r="D11" s="95" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="195"/>
       <c r="C12" s="94"/>
       <c r="D12" s="196"/>
       <c r="F12" s="222"/>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="197"/>
       <c r="C13" s="94" t="s">
         <v>26</v>
@@ -7807,12 +7799,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="189"/>
       <c r="C14" s="94"/>
       <c r="D14" s="95"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="226"/>
       <c r="C15" s="94" t="s">
         <v>26</v>
@@ -7821,12 +7813,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="189"/>
       <c r="C16" s="94"/>
       <c r="D16" s="95"/>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="97"/>
       <c r="C17" s="94" t="s">
         <v>26</v>
@@ -7835,12 +7827,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="189"/>
       <c r="C18" s="94"/>
       <c r="D18" s="95"/>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="221"/>
       <c r="C19" s="94" t="s">
         <v>26</v>
@@ -7849,12 +7841,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="189"/>
       <c r="C20" s="94"/>
       <c r="D20" s="95"/>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="98"/>
       <c r="C21" s="94" t="s">
         <v>26</v>
@@ -7863,12 +7855,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="189"/>
       <c r="C22" s="94"/>
       <c r="D22" s="95"/>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="99"/>
       <c r="C23" s="94" t="s">
         <v>26</v>
@@ -7877,12 +7869,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="189"/>
       <c r="C24" s="189"/>
       <c r="D24" s="95"/>
     </row>
-    <row r="25" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="100"/>
       <c r="C25" s="94" t="s">
         <v>26</v>
@@ -7891,79 +7883,79 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="189"/>
       <c r="C26" s="189"/>
       <c r="D26" s="189"/>
     </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="198"/>
       <c r="C27" s="189"/>
       <c r="D27" s="95" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="189"/>
       <c r="C28" s="189"/>
       <c r="D28" s="95"/>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="101"/>
       <c r="C29" s="189"/>
       <c r="D29" s="95" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="189"/>
       <c r="C30" s="189"/>
       <c r="D30" s="189"/>
     </row>
-    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="102"/>
       <c r="C31" s="189"/>
       <c r="D31" s="95">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="189"/>
       <c r="C32" s="189"/>
       <c r="D32" s="189"/>
     </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="199"/>
       <c r="C33" s="189"/>
       <c r="D33" s="95" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="189"/>
       <c r="C34" s="189"/>
       <c r="D34" s="189"/>
     </row>
-    <row r="35" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B35" s="437" t="s">
+    <row r="35" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B35" s="438" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="437"/>
-      <c r="D35" s="437"/>
-    </row>
-    <row r="36" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B36" s="437" t="s">
+      <c r="C35" s="438"/>
+      <c r="D35" s="438"/>
+    </row>
+    <row r="36" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B36" s="438" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="437"/>
-      <c r="D36" s="437"/>
-    </row>
-    <row r="37" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B37" s="437" t="s">
+      <c r="C36" s="438"/>
+      <c r="D36" s="438"/>
+    </row>
+    <row r="37" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B37" s="438" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="437"/>
-      <c r="D37" s="437"/>
+      <c r="C37" s="438"/>
+      <c r="D37" s="438"/>
     </row>
   </sheetData>
   <mergeCells count="4">
